--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H2">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I2">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J2">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N2">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O2">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P2">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q2">
-        <v>4.338513064291999</v>
+        <v>13.08510923854934</v>
       </c>
       <c r="R2">
-        <v>39.04661757862799</v>
+        <v>117.765983146944</v>
       </c>
       <c r="S2">
-        <v>0.004983409217923319</v>
+        <v>0.00675514637828519</v>
       </c>
       <c r="T2">
-        <v>0.004983409217923318</v>
+        <v>0.00675514637828519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H3">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I3">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J3">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.169915</v>
       </c>
       <c r="O3">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P3">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q3">
-        <v>142.16713826438</v>
+        <v>292.4974170972712</v>
       </c>
       <c r="R3">
-        <v>1279.50424437942</v>
+        <v>2632.47675387544</v>
       </c>
       <c r="S3">
-        <v>0.1632995030356343</v>
+        <v>0.1510008691361491</v>
       </c>
       <c r="T3">
-        <v>0.1632995030356342</v>
+        <v>0.1510008691361491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H4">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I4">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J4">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N4">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O4">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P4">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q4">
-        <v>134.621992066412</v>
+        <v>589.6750561892514</v>
       </c>
       <c r="R4">
-        <v>1211.597928597708</v>
+        <v>5307.075505703264</v>
       </c>
       <c r="S4">
-        <v>0.1546328122693892</v>
+        <v>0.3044178881171913</v>
       </c>
       <c r="T4">
-        <v>0.1546328122693892</v>
+        <v>0.3044178881171913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H5">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I5">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J5">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N5">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O5">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P5">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q5">
-        <v>5.427526938715443</v>
+        <v>7.956381827577334</v>
       </c>
       <c r="R5">
-        <v>48.84774244843899</v>
+        <v>71.60743644819601</v>
       </c>
       <c r="S5">
-        <v>0.006234299027364012</v>
+        <v>0.004107457026684453</v>
       </c>
       <c r="T5">
-        <v>0.006234299027364011</v>
+        <v>0.004107457026684453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J6">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>28.169915</v>
       </c>
       <c r="O6">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P6">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q6">
         <v>177.8526332168428</v>
@@ -821,10 +821,10 @@
         <v>1600.673698951585</v>
       </c>
       <c r="S6">
-        <v>0.2042894509410418</v>
+        <v>0.09181586100968873</v>
       </c>
       <c r="T6">
-        <v>0.2042894509410417</v>
+        <v>0.09181586100968873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J7">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N7">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O7">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P7">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q7">
-        <v>168.4135734193587</v>
+        <v>358.5510686772028</v>
       </c>
       <c r="R7">
-        <v>1515.722160774229</v>
+        <v>3226.959618094826</v>
       </c>
       <c r="S7">
-        <v>0.193447326714089</v>
+        <v>0.1851008584528722</v>
       </c>
       <c r="T7">
-        <v>0.193447326714089</v>
+        <v>0.1851008584528722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H8">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I8">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J8">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N8">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O8">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P8">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q8">
-        <v>2.746338651389667</v>
+        <v>6.245772656640001</v>
       </c>
       <c r="R8">
-        <v>24.717047862507</v>
+        <v>56.21195390976001</v>
       </c>
       <c r="S8">
-        <v>0.00315456681772325</v>
+        <v>0.003224360436884807</v>
       </c>
       <c r="T8">
-        <v>0.003154566817723249</v>
+        <v>0.003224360436884807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H9">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I9">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J9">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>28.169915</v>
       </c>
       <c r="O9">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P9">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q9">
-        <v>89.99376076251168</v>
+        <v>139.6146059264</v>
       </c>
       <c r="R9">
-        <v>809.9438468626051</v>
+        <v>1256.5314533376</v>
       </c>
       <c r="S9">
-        <v>0.1033708393390935</v>
+        <v>0.07207560001111557</v>
       </c>
       <c r="T9">
-        <v>0.1033708393390935</v>
+        <v>0.07207560001111557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H10">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N10">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O10">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P10">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q10">
-        <v>85.21757907841967</v>
+        <v>281.4631712358399</v>
       </c>
       <c r="R10">
-        <v>766.9582117057771</v>
+        <v>2533.16854112256</v>
       </c>
       <c r="S10">
-        <v>0.09788470446332709</v>
+        <v>0.1453044745085549</v>
       </c>
       <c r="T10">
-        <v>0.09788470446332705</v>
+        <v>0.1453044745085549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H11">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I11">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J11">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N11">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O11">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P11">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q11">
-        <v>0.9230558407840002</v>
+        <v>1.024826457424</v>
       </c>
       <c r="R11">
-        <v>8.307502567056002</v>
+        <v>9.223438116816</v>
       </c>
       <c r="S11">
-        <v>0.001060263025016755</v>
+        <v>0.0005290634266807289</v>
       </c>
       <c r="T11">
-        <v>0.001060263025016754</v>
+        <v>0.0005290634266807289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H12">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I12">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J12">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>28.169915</v>
       </c>
       <c r="O12">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P12">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q12">
-        <v>30.24727721176001</v>
+        <v>22.90841339607333</v>
       </c>
       <c r="R12">
-        <v>272.2254949058401</v>
+        <v>206.17572056466</v>
       </c>
       <c r="S12">
-        <v>0.03474336894702081</v>
+        <v>0.01182639617014774</v>
       </c>
       <c r="T12">
-        <v>0.0347433689470208</v>
+        <v>0.01182639617014774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H13">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I13">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J13">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N13">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O13">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P13">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q13">
-        <v>28.641982687024</v>
+        <v>46.18338202981065</v>
       </c>
       <c r="R13">
-        <v>257.777844183216</v>
+        <v>415.6504382682959</v>
       </c>
       <c r="S13">
-        <v>0.03289945620237711</v>
+        <v>0.02384202532574528</v>
       </c>
       <c r="T13">
-        <v>0.03289945620237709</v>
+        <v>0.02384202532574528</v>
       </c>
     </row>
   </sheetData>
